--- a/Training info.xlsx
+++ b/Training info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joewong/OneDrive - The University of Nottingham/COMP3003 - FYP/3D-CNN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9144FB8D-0B6B-E947-9A6F-E29A984B92AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092B5287-FFB5-9B4A-8217-7D531DA3BC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F9A318D7-B791-5740-AE84-74A79FE99DB5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>Training</t>
   </si>
@@ -83,13 +83,46 @@
   </si>
   <si>
     <t>horizontal flip, random crop</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>Dice</t>
+  </si>
+  <si>
+    <t>Jaccard</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean Surface distance (mm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hausdorff distance (mm) (95th percentile) </t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>CKD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,7 +132,22 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -118,6 +166,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="STIX"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="STIX"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="STIXGeneral-Regular"/>
     </font>
   </fonts>
   <fills count="3">
@@ -146,19 +218,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C887F494-AF54-CF43-A204-F36593C6D12E}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,8 +569,8 @@
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="38.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
@@ -531,10 +612,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C2">
@@ -543,7 +624,7 @@
       <c r="D2">
         <v>50</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="F2">
@@ -563,10 +644,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C3">
@@ -575,7 +656,7 @@
       <c r="D3">
         <v>50</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="F3">
@@ -584,7 +665,7 @@
       <c r="G3">
         <v>0.1</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J3">
@@ -595,10 +676,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4">
@@ -607,7 +688,7 @@
       <c r="D4">
         <v>50</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>2.5000000000000002E-6</v>
       </c>
       <c r="F4">
@@ -616,7 +697,7 @@
       <c r="G4">
         <v>0.1</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J4">
@@ -627,10 +708,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C5">
@@ -639,7 +720,7 @@
       <c r="D5">
         <v>50</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="F5">
@@ -659,10 +740,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6">
@@ -671,7 +752,7 @@
       <c r="D6">
         <v>50</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="F6">
@@ -680,7 +761,7 @@
       <c r="G6">
         <v>0.1</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J6">
@@ -691,10 +772,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
@@ -703,7 +784,7 @@
       <c r="D7">
         <v>50</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="F7">
@@ -712,7 +793,7 @@
       <c r="G7">
         <v>0.1</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J7">
@@ -723,10 +804,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C8">
@@ -735,7 +816,7 @@
       <c r="D8">
         <v>50</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="F8">
@@ -744,7 +825,7 @@
       <c r="G8">
         <v>0.1</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J8">
@@ -758,10 +839,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C9">
@@ -770,7 +851,7 @@
       <c r="D9">
         <v>100</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="F9">
@@ -779,7 +860,7 @@
       <c r="G9">
         <v>0.1</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J9">
@@ -793,10 +874,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C10">
@@ -805,7 +886,7 @@
       <c r="D10">
         <v>100</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="F10">
@@ -814,7 +895,7 @@
       <c r="G10">
         <v>0.1</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J10">
@@ -828,10 +909,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C11">
@@ -840,7 +921,7 @@
       <c r="D11">
         <v>100</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="F11">
@@ -849,15 +930,24 @@
       <c r="G11">
         <v>0.1</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="J11">
+        <v>99.36</v>
+      </c>
+      <c r="K11">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="L11">
+        <v>0.97799999999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C12">
@@ -866,7 +956,7 @@
       <c r="D12">
         <v>100</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="F12">
@@ -875,11 +965,268 @@
       <c r="G12">
         <v>0.1</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="H12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>99.45</v>
+      </c>
+      <c r="K12">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="L12">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>99.4</v>
+      </c>
+      <c r="K13">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="L13">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>99.45</v>
+      </c>
+      <c r="K14">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="L14">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>99.37</v>
+      </c>
+      <c r="K15">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="L15">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F16">
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>99.36</v>
+      </c>
+      <c r="K16">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="L16">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="E18" s="5"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.9">
+      <c r="A23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="31" x14ac:dyDescent="0.6">
+      <c r="H27" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:A26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Training info.xlsx
+++ b/Training info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joewong/OneDrive - The University of Nottingham/COMP3003 - FYP/3D-CNN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092B5287-FFB5-9B4A-8217-7D531DA3BC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26D02CC-4D6D-E843-BBC1-8B83DA56DECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F9A318D7-B791-5740-AE84-74A79FE99DB5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>Training</t>
   </si>
@@ -557,7 +557,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1118,7 @@
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1143,35 +1143,62 @@
       <c r="H17" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>99.5</v>
+      </c>
+      <c r="K17">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="L17">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="E18" s="5"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:9" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:12" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.9">
       <c r="A23" s="13" t="s">
         <v>16</v>
       </c>
@@ -1200,7 +1227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>11</v>
       </c>
@@ -1208,19 +1235,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="31" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:12" ht="31" x14ac:dyDescent="0.6">
       <c r="H27" s="10"/>
     </row>
   </sheetData>

--- a/Training info.xlsx
+++ b/Training info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joewong/OneDrive - The University of Nottingham/COMP3003 - FYP/3D-CNN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26D02CC-4D6D-E843-BBC1-8B83DA56DECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36137923-4DEC-FC40-888C-D03A94FAA888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F9A318D7-B791-5740-AE84-74A79FE99DB5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="24">
   <si>
     <t>Training</t>
   </si>
@@ -85,44 +85,35 @@
     <t>horizontal flip, random crop</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Cohort</t>
-  </si>
-  <si>
-    <t>Dice</t>
-  </si>
-  <si>
-    <t>Jaccard</t>
-  </si>
-  <si>
-    <t>Sensitivity</t>
-  </si>
-  <si>
-    <t>Specificity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean Surface distance (mm) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hausdorff distance (mm) (95th percentile) </t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>HC</t>
-  </si>
-  <si>
-    <t>CKD</t>
+    <t>Loss Function</t>
+  </si>
+  <si>
+    <t>binary_cross_entropy_with_logits</t>
+  </si>
+  <si>
+    <t>BCE dice score</t>
+  </si>
+  <si>
+    <t>IOU loss</t>
+  </si>
+  <si>
+    <t>Focal loss</t>
+  </si>
+  <si>
+    <t>Tversky loss</t>
+  </si>
+  <si>
+    <t>Tversky focal loss</t>
+  </si>
+  <si>
+    <t>Dice loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,22 +123,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -174,25 +150,19 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="STIX"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="STIX"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="STIXGeneral-Regular"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +172,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,28 +200,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,706 +548,1270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C887F494-AF54-CF43-A204-F36593C6D12E}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="38.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
       <c r="G2">
-        <v>0.1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2">
         <v>99.01</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="G3">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
         <v>99.29</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4">
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
       <c r="G4">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4">
         <v>99.1</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
-      </c>
-      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>99.34</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
       <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G6">
         <v>30</v>
       </c>
-      <c r="G6">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6">
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6">
         <v>99.42</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
       <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G7">
         <v>30</v>
       </c>
-      <c r="G7">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>99.44</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="F8">
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G8">
         <v>30</v>
       </c>
-      <c r="G8">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8">
+      <c r="H8">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8">
         <v>99.37</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.90900000000000003</v>
       </c>
-      <c r="L8">
+      <c r="M8" s="9">
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="F9">
-        <v>50</v>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9">
         <v>99.33</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.9</v>
       </c>
-      <c r="L9">
+      <c r="M9" s="9">
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="G10">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>99.3</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.89400000000000002</v>
       </c>
-      <c r="L10">
+      <c r="M10" s="9">
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="G11">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>99.36</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.90900000000000003</v>
       </c>
-      <c r="L11">
+      <c r="M11" s="9">
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:13" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12">
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>100</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G12" s="12">
+        <v>50</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="12">
         <v>99.45</v>
       </c>
-      <c r="K12">
+      <c r="L12" s="12">
         <v>0.92100000000000004</v>
       </c>
-      <c r="L12">
+      <c r="M12" s="9">
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
       <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="F13">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="G13">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>99.4</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.91200000000000003</v>
       </c>
-      <c r="L13">
+      <c r="M13" s="9">
         <v>0.98</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
       <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14" s="4">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>40</v>
       </c>
-      <c r="G14">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>99.45</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.91900000000000004</v>
       </c>
-      <c r="L14">
+      <c r="M14" s="9">
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15" s="4">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>40</v>
       </c>
-      <c r="G15">
-        <v>0.1</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15">
+      <c r="H15">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15">
         <v>99.37</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.90800000000000003</v>
       </c>
-      <c r="L15">
+      <c r="M15" s="9">
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
       <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16" s="4">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>40</v>
       </c>
-      <c r="G16">
-        <v>0.1</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16">
+      <c r="H16">
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16">
         <v>99.36</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.90600000000000003</v>
       </c>
-      <c r="L16">
+      <c r="M16" s="9">
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:13" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>0.1</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17">
+      <c r="D17" s="12">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>100</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G17" s="12">
+        <v>50</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="12">
         <v>99.5</v>
       </c>
-      <c r="K17">
+      <c r="L17" s="12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>99.47</v>
+      </c>
+      <c r="L18">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="M18">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>99.43</v>
+      </c>
+      <c r="L19">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>100</v>
+      </c>
+      <c r="F20" s="13">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G20" s="12">
+        <v>50</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="12">
+        <v>99.49</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>99.47</v>
+      </c>
+      <c r="L21">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="M21">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>99.46</v>
+      </c>
+      <c r="L22">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="M22">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>99.2</v>
+      </c>
+      <c r="L23">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="M23">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>99.45</v>
+      </c>
+      <c r="L24">
+        <v>0.92</v>
+      </c>
+      <c r="M24">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25">
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>99.43</v>
+      </c>
+      <c r="L25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="M25">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>99.47</v>
+      </c>
+      <c r="L26">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="M26">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27">
+        <v>0.1</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>99.49</v>
+      </c>
+      <c r="L27">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="M27">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>99.47</v>
+      </c>
+      <c r="L28">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="M28">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12">
+        <v>100</v>
+      </c>
+      <c r="F29" s="13">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G29" s="12">
+        <v>50</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="12">
+        <v>99.51</v>
+      </c>
+      <c r="L29" s="12">
         <v>0.92700000000000005</v>
       </c>
-      <c r="L17">
-        <v>0.98299999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="M29" s="12">
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C18">
+      <c r="D30">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="F18">
-        <v>50</v>
-      </c>
-      <c r="G18">
-        <v>0.1</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.9">
-      <c r="A23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="12" t="s">
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>99.49</v>
+      </c>
+      <c r="L30">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="M30">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>99.48</v>
+      </c>
+      <c r="L31">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="M31">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>11</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="31" x14ac:dyDescent="0.6">
-      <c r="H27" s="10"/>
+      <c r="C32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="15">
+        <v>2</v>
+      </c>
+      <c r="E32" s="15">
+        <v>100</v>
+      </c>
+      <c r="F32" s="21">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G32" s="15">
+        <v>50</v>
+      </c>
+      <c r="H32" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>99.48</v>
+      </c>
+      <c r="L32">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="M32">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15">
+        <v>100</v>
+      </c>
+      <c r="F33" s="21">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G33" s="15">
+        <v>50</v>
+      </c>
+      <c r="H33" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A24:A26"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Training info.xlsx
+++ b/Training info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joewong/OneDrive - The University of Nottingham/COMP3003 - FYP/3D-CNN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36137923-4DEC-FC40-888C-D03A94FAA888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43B2782-E9C9-C34D-BAA9-B75547C10466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F9A318D7-B791-5740-AE84-74A79FE99DB5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="28">
   <si>
     <t>Training</t>
   </si>
@@ -107,13 +107,25 @@
   </si>
   <si>
     <t>Dice loss</t>
+  </si>
+  <si>
+    <t>Dice loss (ELU activation)</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Residual3dUnet</t>
+  </si>
+  <si>
+    <t>UNet3D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,12 +154,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -213,7 +219,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,15 +230,18 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,1268 +556,1498 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C887F494-AF54-CF43-A204-F36593C6D12E}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="38.6640625" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="38.6640625" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2" s="4">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
       <c r="H2">
-        <v>0.1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>0.1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2">
         <v>99.01</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3">
         <v>99.29</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4">
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
       <c r="H4">
-        <v>0.1</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4">
         <v>99.1</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H5">
-        <v>0.1</v>
-      </c>
-      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>0.1</v>
+      </c>
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>99.34</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G6">
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H6">
         <v>30</v>
       </c>
-      <c r="H6">
-        <v>0.1</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6">
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6">
         <v>99.42</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G7">
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H7">
         <v>30</v>
       </c>
-      <c r="H7">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>99.44</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>50</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G8">
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H8">
         <v>30</v>
       </c>
-      <c r="H8">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8">
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8">
         <v>99.37</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.90900000000000003</v>
       </c>
-      <c r="M8" s="9">
+      <c r="N8" s="8">
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G9">
-        <v>50</v>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H9">
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9">
         <v>99.33</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.9</v>
       </c>
-      <c r="M9" s="9">
+      <c r="N9" s="8">
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>6</v>
       </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G10">
-        <v>50</v>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H10">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>99.3</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.89400000000000002</v>
       </c>
-      <c r="M10" s="9">
+      <c r="N10" s="8">
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H11">
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>99.36</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.90900000000000003</v>
       </c>
-      <c r="M11" s="9">
+      <c r="N11" s="8">
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:14" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="12">
+      <c r="E12" s="11">
         <v>2</v>
       </c>
-      <c r="E12" s="12">
-        <v>100</v>
-      </c>
-      <c r="F12" s="13">
-        <v>2.5000000000000001E-5</v>
+      <c r="F12" s="11">
+        <v>100</v>
       </c>
       <c r="G12" s="12">
-        <v>50</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="12">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H12" s="11">
+        <v>50</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="11">
         <v>99.45</v>
       </c>
-      <c r="L12" s="12">
+      <c r="M12" s="11">
         <v>0.92100000000000004</v>
       </c>
-      <c r="M12" s="9">
+      <c r="N12" s="11">
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G13">
-        <v>50</v>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H13">
-        <v>0.1</v>
-      </c>
-      <c r="I13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>99.4</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.91200000000000003</v>
       </c>
-      <c r="M13" s="9">
+      <c r="N13" s="8">
         <v>0.98</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14" s="4">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>40</v>
       </c>
-      <c r="H14">
-        <v>0.1</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>99.45</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.91900000000000004</v>
       </c>
-      <c r="M14" s="9">
+      <c r="N14" s="8">
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>4</v>
       </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15" s="4">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>40</v>
       </c>
-      <c r="H15">
-        <v>0.1</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15">
+      <c r="I15">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15">
         <v>99.37</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.90800000000000003</v>
       </c>
-      <c r="M15" s="9">
+      <c r="N15" s="8">
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16" s="4">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>40</v>
       </c>
-      <c r="H16">
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16">
+      <c r="I16">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16">
         <v>99.36</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.90600000000000003</v>
       </c>
-      <c r="M16" s="9">
+      <c r="N16" s="8">
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+    <row r="17" spans="1:14" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="12">
+      <c r="E17" s="11">
         <v>2</v>
       </c>
-      <c r="E17" s="12">
-        <v>100</v>
-      </c>
-      <c r="F17" s="13">
-        <v>2.5000000000000001E-5</v>
+      <c r="F17" s="11">
+        <v>100</v>
       </c>
       <c r="G17" s="12">
-        <v>50</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="12">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H17" s="11">
+        <v>50</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="11">
         <v>99.5</v>
       </c>
-      <c r="L17" s="12">
+      <c r="M17" s="11">
         <v>0.92500000000000004</v>
       </c>
-      <c r="M17" s="12">
+      <c r="N17" s="11">
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H18">
-        <v>0.1</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18">
         <v>99.47</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.92300000000000004</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H19">
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>99.43</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.91700000000000004</v>
       </c>
-      <c r="M19" s="15">
+      <c r="N19" s="14">
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+    <row r="20" spans="1:14" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="12">
+      <c r="E20" s="11">
         <v>2</v>
       </c>
-      <c r="E20" s="12">
-        <v>100</v>
-      </c>
-      <c r="F20" s="13">
-        <v>2.5000000000000001E-5</v>
+      <c r="F20" s="11">
+        <v>100</v>
       </c>
       <c r="G20" s="12">
-        <v>50</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="12">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H20" s="11">
+        <v>50</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="11">
         <v>99.49</v>
       </c>
-      <c r="L20" s="12">
+      <c r="M20" s="11">
         <v>0.92500000000000004</v>
       </c>
-      <c r="M20" s="12">
+      <c r="N20" s="11">
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G21">
-        <v>50</v>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H21">
-        <v>0.1</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21">
+        <v>50</v>
+      </c>
+      <c r="I21">
+        <v>0.1</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21">
         <v>99.47</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.92300000000000004</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2</v>
       </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G22">
-        <v>50</v>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H22">
-        <v>0.1</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22">
+        <v>50</v>
+      </c>
+      <c r="I22">
+        <v>0.1</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22">
         <v>99.46</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.92100000000000004</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H23">
-        <v>0.1</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23">
+        <v>50</v>
+      </c>
+      <c r="I23">
+        <v>0.1</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23">
         <v>99.2</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.88200000000000001</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H24">
-        <v>0.1</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>0.1</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24">
         <v>99.45</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.92</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="E25">
-        <v>100</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G25">
-        <v>50</v>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H25">
-        <v>0.1</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>0.1</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25">
         <v>99.43</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.91700000000000004</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2</v>
       </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G26">
-        <v>50</v>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H26">
-        <v>0.1</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26">
         <v>99.47</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.92300000000000004</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="E27">
-        <v>100</v>
-      </c>
-      <c r="F27" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G27">
-        <v>50</v>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H27">
-        <v>0.1</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27">
         <v>99.49</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.92500000000000004</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2</v>
       </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
-      <c r="F28" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G28">
-        <v>50</v>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H28">
-        <v>0.1</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28">
+        <v>50</v>
+      </c>
+      <c r="I28">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28">
         <v>99.47</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.92300000000000004</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+    <row r="29" spans="1:14" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="12">
+      <c r="E29" s="11">
         <v>1</v>
       </c>
-      <c r="E29" s="12">
-        <v>100</v>
-      </c>
-      <c r="F29" s="13">
-        <v>2.5000000000000001E-5</v>
+      <c r="F29" s="11">
+        <v>100</v>
       </c>
       <c r="G29" s="12">
-        <v>50</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="12">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H29" s="11">
+        <v>50</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="11">
         <v>99.51</v>
       </c>
-      <c r="L29" s="12">
+      <c r="M29" s="11">
         <v>0.92700000000000005</v>
       </c>
-      <c r="M29" s="12">
+      <c r="N29" s="11">
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="E30">
-        <v>100</v>
-      </c>
-      <c r="F30" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G30">
-        <v>50</v>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H30">
-        <v>0.1</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30">
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30">
         <v>99.49</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.92500000000000004</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>100</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G31">
-        <v>50</v>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H31">
-        <v>0.1</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31">
+        <v>50</v>
+      </c>
+      <c r="I31">
+        <v>0.1</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31">
         <v>99.48</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.92400000000000004</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.86</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="15">
+      <c r="E32" s="14">
         <v>2</v>
       </c>
-      <c r="E32" s="15">
-        <v>100</v>
-      </c>
-      <c r="F32" s="21">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G32" s="15">
-        <v>50</v>
-      </c>
-      <c r="H32" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32">
+      <c r="F32" s="14">
+        <v>100</v>
+      </c>
+      <c r="G32" s="20">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H32" s="14">
+        <v>50</v>
+      </c>
+      <c r="I32" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32">
         <v>99.48</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.92500000000000004</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:14" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="D33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="15">
+      <c r="E33" s="11">
         <v>1</v>
       </c>
-      <c r="E33" s="15">
-        <v>100</v>
-      </c>
-      <c r="F33" s="21">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="G33" s="15">
-        <v>50</v>
-      </c>
-      <c r="H33" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E36" s="8"/>
+      <c r="F33" s="11">
+        <v>100</v>
+      </c>
+      <c r="G33" s="12">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H33" s="11">
+        <v>50</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="11">
+        <v>99.51</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1</v>
+      </c>
+      <c r="F34" s="11">
+        <v>100</v>
+      </c>
+      <c r="G34" s="12">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H34" s="11">
+        <v>50</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="11">
+        <v>99.51</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11">
+        <v>100</v>
+      </c>
+      <c r="G35" s="12">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H35" s="11">
+        <v>50</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="11">
+        <v>99.51</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>35</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="14">
+        <v>1</v>
+      </c>
+      <c r="F36" s="14">
+        <v>100</v>
+      </c>
+      <c r="G36" s="20">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H36" s="14">
+        <v>50</v>
+      </c>
+      <c r="I36" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="14">
+        <v>99.49</v>
+      </c>
+      <c r="M36" s="14">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="N36" s="14">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Training info.xlsx
+++ b/Training info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joewong/OneDrive - The University of Nottingham/COMP3003 - FYP/3D-CNN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D972B448-4BD4-B146-8502-2D8B6E22B27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B168BDF-8D2C-6F41-B21B-2D5FD7E6F39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F9A318D7-B791-5740-AE84-74A79FE99DB5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
   <si>
     <t>Training</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>horizontal flip, random crop, random elastic,</t>
+  </si>
+  <si>
+    <t>64 128 256 512</t>
+  </si>
+  <si>
+    <t>BCE Dice loss (ELU activation)</t>
   </si>
 </sst>
 </file>
@@ -185,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +222,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -229,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -269,6 +281,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C887F494-AF54-CF43-A204-F36593C6D12E}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="82" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="82" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2087,7 +2109,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>13</v>
@@ -2110,16 +2132,25 @@
       <c r="J38" s="20" t="s">
         <v>28</v>
       </c>
+      <c r="L38" s="13">
+        <v>99.4</v>
+      </c>
+      <c r="M38" s="13">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="N38" s="13">
+        <v>0.84299999999999997</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="21">
         <v>37</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>14</v>
@@ -2141,6 +2172,15 @@
       </c>
       <c r="J39" s="20" t="s">
         <v>10</v>
+      </c>
+      <c r="L39">
+        <v>99.48</v>
+      </c>
+      <c r="M39">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="N39">
+        <v>0.85799999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -2151,7 +2191,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>13</v>
@@ -2172,6 +2212,152 @@
         <v>0.1</v>
       </c>
       <c r="J40" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40">
+        <v>99.44</v>
+      </c>
+      <c r="M40">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="N40">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="28" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <v>39</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="28">
+        <v>1</v>
+      </c>
+      <c r="F41" s="28">
+        <v>100</v>
+      </c>
+      <c r="G41" s="29">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H41" s="28">
+        <v>50</v>
+      </c>
+      <c r="I41" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="J41" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
+        <v>40</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="13">
+        <v>1</v>
+      </c>
+      <c r="F42" s="13">
+        <v>100</v>
+      </c>
+      <c r="G42" s="19">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="H42" s="13">
+        <v>50</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42">
+        <v>99.42</v>
+      </c>
+      <c r="M42">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="N42">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
+        <v>41</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="13">
+        <v>1</v>
+      </c>
+      <c r="F43" s="13">
+        <v>100</v>
+      </c>
+      <c r="G43" s="19">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H43" s="13">
+        <v>50</v>
+      </c>
+      <c r="I43" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="21">
+        <v>41</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="13">
+        <v>1</v>
+      </c>
+      <c r="F44" s="13">
+        <v>100</v>
+      </c>
+      <c r="G44" s="19">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H44" s="13">
+        <v>50</v>
+      </c>
+      <c r="I44" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="J44" s="20" t="s">
         <v>30</v>
       </c>
     </row>
